--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4740" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +616,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +663,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +847,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +894,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1078,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1125,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1309,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1356,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1402,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1487,10 +1511,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1534,28 +1558,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1580,28 +1604,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1689,10 +1713,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1736,28 +1760,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1782,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1949,10 +1973,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1996,28 +2020,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2042,28 +2066,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2151,10 +2175,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2198,28 +2222,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2244,28 +2268,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2353,10 +2377,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2400,28 +2424,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2446,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2555,10 +2579,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2602,28 +2626,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2648,28 +2672,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2781,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2828,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2959,10 +2983,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="2" t="s">
+      <c r="J98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3006,28 +3030,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="2">
+      <c r="C100" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3052,28 +3076,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3161,10 +3185,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3208,28 +3232,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3254,28 +3278,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3363,10 +3387,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3410,28 +3434,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3456,28 +3480,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3565,10 +3589,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3612,28 +3636,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3658,28 +3682,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3796,10 +3820,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3843,28 +3867,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3889,28 +3913,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3998,10 +4022,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4045,28 +4069,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4091,28 +4115,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4200,10 +4224,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="J141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4247,28 +4271,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="2">
+      <c r="C143" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4293,28 +4317,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4402,10 +4426,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4449,28 +4473,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4495,28 +4519,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4633,10 +4657,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4680,28 +4704,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4726,28 +4750,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4835,10 +4859,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4882,28 +4906,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4928,28 +4952,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5037,10 +5061,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5084,28 +5108,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5130,28 +5154,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5297,10 +5321,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5344,28 +5368,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5390,28 +5414,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5499,10 +5523,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5546,28 +5570,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5592,28 +5616,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5701,10 +5725,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5748,28 +5772,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5794,28 +5818,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5903,10 +5927,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5950,28 +5974,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5996,28 +6020,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6105,10 +6129,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6152,28 +6176,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6198,28 +6222,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6336,10 +6360,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6383,28 +6407,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6429,28 +6453,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6538,10 +6562,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6585,28 +6609,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6631,28 +6655,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6798,10 +6822,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6845,28 +6869,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6891,28 +6915,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7029,10 +7053,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7076,28 +7100,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7122,28 +7146,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7231,10 +7255,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7278,28 +7302,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7324,28 +7348,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7433,10 +7457,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7480,28 +7504,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7526,28 +7550,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7664,10 +7688,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7711,28 +7735,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7757,28 +7781,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7866,10 +7890,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="2" t="s">
+      <c r="J268" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7913,28 +7937,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="2">
+      <c r="A270" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="2">
+      <c r="B270" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="2">
+      <c r="C270" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="2">
+      <c r="E270" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="2">
+      <c r="F270" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="2">
+      <c r="G270" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="2">
+      <c r="H270" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7959,28 +7983,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="2">
+      <c r="C272" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="2">
+      <c r="D272" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="2">
+      <c r="I272" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8068,10 +8092,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8115,28 +8139,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8161,28 +8185,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8270,10 +8294,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8317,28 +8341,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8363,28 +8387,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8472,10 +8496,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8519,28 +8543,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8565,28 +8589,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8674,10 +8698,10 @@
       <c r="I296">
         <f>((C296-C295)^2+(D296- D295)^2)^.5</f>
       </c>
-      <c r="J296" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K296" s="2" t="s">
+      <c r="J296" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K296" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L296" t="n">
@@ -8721,28 +8745,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="s" s="2">
+      <c r="A298" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C298" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D298" t="s" s="2">
+      <c r="C298" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D298" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8767,28 +8791,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C300" t="s" s="2">
+      <c r="C300" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D300" t="s" s="2">
+      <c r="D300" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I300" t="s" s="2">
+      <c r="I300" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8876,10 +8900,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="2" t="s">
+      <c r="J303" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8923,28 +8947,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="2">
+      <c r="A305" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="2">
+      <c r="B305" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="2">
+      <c r="C305" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="2">
+      <c r="E305" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="2">
+      <c r="F305" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="2">
+      <c r="G305" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="2">
+      <c r="H305" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8969,28 +8993,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="2">
+      <c r="B307" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="2">
+      <c r="C307" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="2">
+      <c r="D307" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="2">
+      <c r="E307" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="2">
+      <c r="F307" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="2">
+      <c r="G307" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="2">
+      <c r="H307" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="2">
+      <c r="I307" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9078,10 +9102,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9125,28 +9149,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9171,28 +9195,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9251,10 +9275,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
